--- a/xlsx/哈佛法学院_intext.xlsx
+++ b/xlsx/哈佛法学院_intext.xlsx
@@ -29,7 +29,7 @@
     <t>私立学校</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_哈佛法学院</t>
+    <t>政策_政策_维基百科_哈佛法学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>法學博士</t>
+    <t>法学博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%89%B9%C2%B7%E7%BE%85%E5%A7%86%E5%B0%BC</t>
   </si>
   <si>
-    <t>米特·羅姆尼</t>
+    <t>米特·罗姆尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%9F%E7%A6%8F%E5%BE%B7%C2%B7%E4%BC%AF%E6%9F%A5%E5%BE%B7%C2%B7%E6%B5%B7%E6%96%AF</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E8%88%89%E8%83%BD</t>
   </si>
   <si>
-    <t>張舉能</t>
+    <t>张举能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瑪麗·羅賓遜</t>
+    <t>玛丽·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E5%AE%98</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E5%A8%9B%E6%A8%82%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>全美娛樂公司</t>
+    <t>全美娱乐公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AA</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>達美航空</t>
+    <t>达美航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Elizabeth_Warren</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-哈佛大學</t>
+    <t>Template talk-哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%93%88%E4%BD%9B</t>
   </si>
   <si>
-    <t>約翰·哈佛</t>
+    <t>约翰·哈佛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%A0%A1%E8%91%A3%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%88%A9%E5%A5%A7%C2%B7%E5%BC%97%E5%80%AB%E5%85%8B</t>
   </si>
   <si>
-    <t>胡利奧·弗倫克</t>
+    <t>胡利奥·弗伦克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jeffrey_S._Flier</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛學院</t>
+    <t>哈佛学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%96%87%E7%90%86%E7%A0%94%E7%A9%B6%E7%94%9F%E9%99%A2</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8%E9%80%B2%E4%BF%AE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛大學進修學院</t>
+    <t>哈佛大学进修学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%9A%91%E6%9C%9F%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛暑期學院</t>
+    <t>哈佛暑期学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harvard_Extension_School</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%89%99%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛牙醫學院</t>
+    <t>哈佛牙医学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harvard_T.H._Chan_School_of_Public_Health</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B-%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E9%86%AB%E7%99%82%E7%A7%91%E6%8A%80%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>哈佛-麻省理工醫療科技學院</t>
+    <t>哈佛-麻省理工医疗科技学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adams_House_(Harvard_University)</t>
@@ -581,31 +581,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%87%95%E4%BA%AC%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈佛燕京圖書館</t>
+    <t>哈佛燕京图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%BE%B7%E7%B4%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>懷德納圖書館</t>
+    <t>怀德纳图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%A0%BC%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>福格藝術博物館</t>
+    <t>福格艺术博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈佛藝術博物館</t>
+    <t>哈佛艺术博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈佛自然史博物館</t>
+    <t>哈佛自然史博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%87%BA%E7%89%88%E7%A4%BE</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E6%AD%A3%E6%B8%85%E4%B8%AD%E5%9C%8B%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>費正清中國研究中心</t>
+    <t>费正清中国研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%87%95%E4%BA%AC%E5%AD%A6%E7%A4%BE</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全美大學體育協會</t>
+    <t>全美大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E6%A5%AD%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
-    <t>哈佛商業評論</t>
+    <t>哈佛商业评论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%B3%95%E5%BE%8B%E8%AF%84%E8%AE%BA</t>
